--- a/trunk/SciFi/Teleport/BOM.xlsx
+++ b/trunk/SciFi/Teleport/BOM.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="30">
   <si>
     <t>Что</t>
   </si>
@@ -98,6 +98,12 @@
   </si>
   <si>
     <t>Держатель батареек 2хАА</t>
+  </si>
+  <si>
+    <t>Рассеиватель (повторитель поворотов)</t>
+  </si>
+  <si>
+    <t>Автозапчасти</t>
   </si>
 </sst>
 </file>
@@ -533,10 +539,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I23"/>
+  <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -586,14 +592,14 @@
         <v>6</v>
       </c>
       <c r="D3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E3">
         <v>120</v>
       </c>
       <c r="F3">
         <f>D3*E3</f>
-        <v>600</v>
+        <v>720</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>12</v>
@@ -620,85 +626,88 @@
         <v>120</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5">
+        <v>12</v>
+      </c>
+      <c r="E5">
+        <v>54</v>
+      </c>
+      <c r="F5">
+        <f>D5*E5</f>
+        <v>648</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>16</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B9" t="s">
         <v>15</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C9" t="s">
         <v>17</v>
       </c>
-      <c r="D8">
+      <c r="D9">
         <v>1</v>
       </c>
-      <c r="E8">
+      <c r="E9">
         <v>400</v>
       </c>
-      <c r="F8">
-        <f>D8*E8</f>
+      <c r="F9">
+        <f>D9*E9</f>
         <v>400</v>
       </c>
     </row>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
+    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
         <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D12">
-        <v>6</v>
-      </c>
-      <c r="E12">
-        <v>140</v>
-      </c>
-      <c r="F12" s="5">
-        <f>D12*E12</f>
-        <v>840</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D13">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="E13">
-        <v>10</v>
-      </c>
-      <c r="F13">
+        <v>140</v>
+      </c>
+      <c r="F13" s="5">
         <f>D13*E13</f>
-        <v>200</v>
+        <v>840</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D14">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="E14">
         <v>10</v>
       </c>
       <c r="F14">
-        <f t="shared" ref="F14:F17" si="0">D14*E14</f>
-        <v>10</v>
+        <f>D14*E14</f>
+        <v>200</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D15">
         <v>1</v>
@@ -707,97 +716,112 @@
         <v>10</v>
       </c>
       <c r="F15">
+        <f t="shared" ref="F15:F18" si="0">D15*E15</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>10</v>
+      </c>
+      <c r="F16">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>23</v>
       </c>
-      <c r="D16">
+      <c r="D17">
         <v>10</v>
       </c>
-      <c r="E16">
+      <c r="E17">
         <v>10</v>
       </c>
-      <c r="F16">
+      <c r="F17">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>24</v>
       </c>
-      <c r="D17">
+      <c r="D18">
         <v>1</v>
       </c>
-      <c r="E17">
+      <c r="E18">
         <v>25</v>
       </c>
-      <c r="F17">
+      <c r="F18">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="H18" s="6" t="s">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H19" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="I18" s="6">
-        <f>SUM(F3:F17)</f>
-        <v>2305</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
+      <c r="I19" s="6">
+        <f>SUM(F3:F18)</f>
+        <v>3073</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
         <v>25</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>16</v>
-      </c>
-      <c r="B21" t="s">
-        <v>15</v>
-      </c>
-      <c r="C21" t="s">
-        <v>17</v>
-      </c>
-      <c r="D21">
-        <v>5</v>
-      </c>
-      <c r="E21">
-        <v>400</v>
-      </c>
-      <c r="F21">
-        <f>D21*E21</f>
-        <v>2000</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>27</v>
+        <v>16</v>
+      </c>
+      <c r="B22" t="s">
+        <v>15</v>
+      </c>
+      <c r="C22" t="s">
+        <v>17</v>
       </c>
       <c r="D22">
         <v>5</v>
       </c>
       <c r="E22">
-        <v>20</v>
+        <v>400</v>
       </c>
       <c r="F22">
         <f>D22*E22</f>
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23">
+        <v>5</v>
+      </c>
+      <c r="E23">
+        <v>20</v>
+      </c>
+      <c r="F23">
+        <f>D23*E23</f>
         <v>100</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="H23" s="6" t="s">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H24" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="I23" s="6">
-        <f>I18+F21+F22</f>
-        <v>4405</v>
+      <c r="I24" s="6">
+        <f>I19+F22+F23</f>
+        <v>5173</v>
       </c>
     </row>
   </sheetData>

--- a/trunk/SciFi/Teleport/BOM.xlsx
+++ b/trunk/SciFi/Teleport/BOM.xlsx
@@ -7,14 +7,15 @@
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Итоги" sheetId="2" r:id="rId1"/>
+    <sheet name="sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="48">
   <si>
     <t>Что</t>
   </si>
@@ -91,26 +92,80 @@
     <t>Держатель батареек 3хАА</t>
   </si>
   <si>
-    <t>Дополнительные детали для системы пеленга (помимо перечисленных выше)</t>
-  </si>
-  <si>
     <t>Итого:</t>
   </si>
   <si>
-    <t>Держатель батареек 2хАА</t>
-  </si>
-  <si>
     <t>Рассеиватель (повторитель поворотов)</t>
   </si>
   <si>
     <t>Автозапчасти</t>
+  </si>
+  <si>
+    <t>Блок поля</t>
+  </si>
+  <si>
+    <t>Корпус</t>
+  </si>
+  <si>
+    <t>Кол-во в блоке</t>
+  </si>
+  <si>
+    <t>Кол-во общее</t>
+  </si>
+  <si>
+    <t>Рассеиватель</t>
+  </si>
+  <si>
+    <t>Светодиод синий</t>
+  </si>
+  <si>
+    <t>Динамик</t>
+  </si>
+  <si>
+    <t>Разъем</t>
+  </si>
+  <si>
+    <t>RJ-45</t>
+  </si>
+  <si>
+    <t>Блок управления</t>
+  </si>
+  <si>
+    <t>Светодиод красный с держателем</t>
+  </si>
+  <si>
+    <t>Светодиод зеленый с держателем</t>
+  </si>
+  <si>
+    <t>Модуль 04</t>
+  </si>
+  <si>
+    <t>Работа</t>
+  </si>
+  <si>
+    <t>Итого</t>
+  </si>
+  <si>
+    <t>Провода</t>
+  </si>
+  <si>
+    <t>Кабель Cat5</t>
+  </si>
+  <si>
+    <t>25 м</t>
+  </si>
+  <si>
+    <t>RJ45</t>
+  </si>
+  <si>
+    <t>Колпачок</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -156,6 +211,16 @@
       <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -222,7 +287,7 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -234,6 +299,14 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="3"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Accent1" xfId="3" builtinId="29"/>
@@ -539,10 +612,379 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I24"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.140625" customWidth="1"/>
+    <col min="2" max="2" width="16" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="4">
+        <v>1</v>
+      </c>
+      <c r="D2" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <f>C3*$D$2</f>
+        <v>6</v>
+      </c>
+      <c r="E3">
+        <v>150</v>
+      </c>
+      <c r="F3">
+        <f>E3*D3</f>
+        <v>900</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <f>C4*$D$2</f>
+        <v>12</v>
+      </c>
+      <c r="E4">
+        <v>54</v>
+      </c>
+      <c r="F4">
+        <f>E4*D4</f>
+        <v>648</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5">
+        <v>6</v>
+      </c>
+      <c r="D5">
+        <f>C5*$D$2</f>
+        <v>36</v>
+      </c>
+      <c r="E5">
+        <v>15</v>
+      </c>
+      <c r="F5">
+        <f>E5*D5</f>
+        <v>540</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <f>C6*$D$2</f>
+        <v>6</v>
+      </c>
+      <c r="E6" s="9">
+        <v>50</v>
+      </c>
+      <c r="F6">
+        <f>E6*D6</f>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <f>C7*$D$2</f>
+        <v>6</v>
+      </c>
+      <c r="E7" s="9">
+        <v>15</v>
+      </c>
+      <c r="F7">
+        <f>E7*D7</f>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>120</v>
+      </c>
+      <c r="F10">
+        <f t="shared" ref="F10:F16" si="0">E10*D10</f>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11" s="9">
+        <v>25</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12" s="9">
+        <v>25</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13">
+        <v>5</v>
+      </c>
+      <c r="D13">
+        <v>5</v>
+      </c>
+      <c r="E13" s="9">
+        <v>15</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="0"/>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14" s="9">
+        <v>50</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15" s="9">
+        <v>25</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16" s="9">
+        <v>400</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="0"/>
+        <v>400</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E17" s="9"/>
+    </row>
+    <row r="18" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>44</v>
+      </c>
+      <c r="D19" t="s">
+        <v>45</v>
+      </c>
+      <c r="E19" s="9">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>35</v>
+      </c>
+      <c r="B20" t="s">
+        <v>46</v>
+      </c>
+      <c r="D20">
+        <v>10</v>
+      </c>
+      <c r="E20" s="9">
+        <v>10</v>
+      </c>
+      <c r="F20">
+        <f>E20*D20</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>47</v>
+      </c>
+      <c r="D21">
+        <v>10</v>
+      </c>
+      <c r="E21" s="9">
+        <v>4</v>
+      </c>
+      <c r="F21">
+        <f>E21*D21</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E22" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="F22" s="10">
+        <f>SUM(F3:F21)</f>
+        <v>3338</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F25" s="4">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E26" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="F26" s="10">
+        <f>F25+F22</f>
+        <v>4838</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -628,10 +1070,10 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D5">
         <v>12</v>
@@ -686,7 +1128,7 @@
         <v>140</v>
       </c>
       <c r="F13" s="5">
-        <f>D13*E13</f>
+        <f t="shared" ref="F13:F18" si="0">D13*E13</f>
         <v>840</v>
       </c>
     </row>
@@ -695,14 +1137,14 @@
         <v>20</v>
       </c>
       <c r="D14">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="E14">
         <v>10</v>
       </c>
       <c r="F14">
-        <f>D14*E14</f>
-        <v>200</v>
+        <f t="shared" si="0"/>
+        <v>360</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -713,11 +1155,11 @@
         <v>1</v>
       </c>
       <c r="E15">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="F15">
-        <f t="shared" ref="F15:F18" si="0">D15*E15</f>
-        <v>10</v>
+        <f t="shared" si="0"/>
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -728,11 +1170,11 @@
         <v>1</v>
       </c>
       <c r="E16">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="F16">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
@@ -740,14 +1182,14 @@
         <v>23</v>
       </c>
       <c r="D17">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E17">
         <v>10</v>
       </c>
       <c r="F17">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>110</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
@@ -767,61 +1209,11 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="H19" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I19" s="6">
         <f>SUM(F3:F18)</f>
-        <v>3073</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>16</v>
-      </c>
-      <c r="B22" t="s">
-        <v>15</v>
-      </c>
-      <c r="C22" t="s">
-        <v>17</v>
-      </c>
-      <c r="D22">
-        <v>5</v>
-      </c>
-      <c r="E22">
-        <v>400</v>
-      </c>
-      <c r="F22">
-        <f>D22*E22</f>
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>27</v>
-      </c>
-      <c r="D23">
-        <v>5</v>
-      </c>
-      <c r="E23">
-        <v>20</v>
-      </c>
-      <c r="F23">
-        <f>D23*E23</f>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="H24" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="I24" s="6">
-        <f>I19+F22+F23</f>
-        <v>5173</v>
+        <v>3273</v>
       </c>
     </row>
   </sheetData>
